--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(G)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(G).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(G)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(G).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(G)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(G)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geo
-Geohintonia - fam. Cactacées (Cactus)
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geohintonia - fam. Cactacées (Cactus)
 Geohintonia mexicana
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(G)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gym
-Gymnocalycium - fam. Cactacées (Cactus)
+          <t>Gym</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnocalycium - fam. Cactacées (Cactus)
 Gymnocalycium alboareolatum
 Gymnocalycium andreae
 Gymnocalycium anisitsii
